--- a/TestPlan_MathTeroids.xlsx
+++ b/TestPlan_MathTeroids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6004A653-1413-4744-B457-3CE7CDB22A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F805AC8A-FD5A-485B-8E2F-E22D61625C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{096974DE-028C-E54D-A505-DA6F110D6847}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>TC-008</t>
-  </si>
-  <si>
-    <t>Partial</t>
   </si>
   <si>
     <t>Difficulty Selection</t>
@@ -112,15 +109,9 @@
     <t>Math Problem System</t>
   </si>
   <si>
-    <t>Verify math question appears and are random</t>
-  </si>
-  <si>
     <t>1. Select difficulty
 2. Start game
 3. Observe math UI</t>
-  </si>
-  <si>
-    <t>Math problem appears randomly based on difficulty</t>
   </si>
   <si>
     <t>Answer Input</t>
@@ -191,30 +182,13 @@
     <t>Verify asteroids can be destroyed upon missile impact</t>
   </si>
   <si>
-    <t>1. Shoot out missile
-2. Missile goes nearest asteroid
-3. Observe outcome</t>
-  </si>
-  <si>
     <t>Homing Missile</t>
-  </si>
-  <si>
-    <t>Test missile target-lock nearest asteroid</t>
   </si>
   <si>
     <t>1.Shoot out missile
 2. Observe missile movement</t>
   </si>
   <si>
-    <t>Missile goes to nearest asteroid</t>
-  </si>
-  <si>
-    <t>Target-locking sometimes inaccurate; does not go to nearest asteroid</t>
-  </si>
-  <si>
-    <t>Needs minor logic fixes</t>
-  </si>
-  <si>
     <t>TC-009</t>
   </si>
   <si>
@@ -232,9 +206,6 @@
   <si>
     <t>1. Let asteroid hit earth
 2. Observe outcome</t>
-  </si>
-  <si>
-    <t>Health decreases, and UI updates depending on health value.</t>
   </si>
   <si>
     <t>TC-011</t>
@@ -293,27 +264,55 @@
     <t>TC-014</t>
   </si>
   <si>
-    <t>Multiple Homing Missiles</t>
-  </si>
-  <si>
-    <t>Test if 2nd missile target-locks next nearest asteroid</t>
-  </si>
-  <si>
-    <t>1. Wait for 2 asteroids to spawn
-2. Shoot out 2 missiles in quick succession
-3. Observe missile behavior</t>
-  </si>
-  <si>
-    <t>2nd missile goes to the 2nd nearest asteroid and not to the absolute nearest asteroid where the 1st missile is currently locked to</t>
-  </si>
-  <si>
-    <t>2nd missile still goes to the actual nearest asteroid that's already been target locked by another missile</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Needs major homing behavior changes. Complete redo of the FindNearestAsteroid() code logic.</t>
+    <t>Verify math question appears on each asteroid and are random</t>
+  </si>
+  <si>
+    <t>Math problem appears on asteroids randomly based on difficulty</t>
+  </si>
+  <si>
+    <t>Test missile target-lock system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missile targets the asteroid carrying the correctly answered math problem </t>
+  </si>
+  <si>
+    <t>1. Shoot out missile
+2. Missile goes to asteroid
+3. Observe outcome</t>
+  </si>
+  <si>
+    <t>Health decreases, and UI updates depending on health value</t>
+  </si>
+  <si>
+    <t>Shop System</t>
+  </si>
+  <si>
+    <t>Test shop works by buying buffs or upgrades</t>
+  </si>
+  <si>
+    <t>1. Start the game
+2. Earn enough money
+3. Buy shield</t>
+  </si>
+  <si>
+    <t>Shield spawns and protects Earth from an incoming asteroid; Currency updates.</t>
+  </si>
+  <si>
+    <t>TC-015</t>
+  </si>
+  <si>
+    <t>In-Game Currency</t>
+  </si>
+  <si>
+    <t>Test player earns money by destroying asteroids</t>
+  </si>
+  <si>
+    <t>1. Start the game
+2. Destroy asteroids
+3. Observe currency UI</t>
+  </si>
+  <si>
+    <t>Current money updates in real-time everytime an asteroid is destroyed.</t>
   </si>
 </sst>
 </file>
@@ -759,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6B292F-FFC2-8649-AD47-B7E0F259B5FA}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -808,16 +807,16 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
@@ -832,16 +831,16 @@
         <v>11</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>9</v>
@@ -849,23 +848,23 @@
       <c r="G3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>9</v>
@@ -875,21 +874,21 @@
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>9</v>
@@ -897,23 +896,23 @@
       <c r="G5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>9</v>
@@ -928,16 +927,16 @@
         <v>15</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>57</v>
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>9</v>
@@ -952,42 +951,40 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
@@ -999,19 +996,19 @@
     </row>
     <row r="10" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>9</v>
@@ -1023,19 +1020,19 @@
     </row>
     <row r="11" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>9</v>
@@ -1047,19 +1044,19 @@
     </row>
     <row r="12" spans="1:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>9</v>
@@ -1071,19 +1068,19 @@
     </row>
     <row r="13" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>9</v>
@@ -1095,53 +1092,75 @@
     </row>
     <row r="14" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="F16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
